--- a/backend/eggs.xlsx
+++ b/backend/eggs.xlsx
@@ -1,32 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Лист1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Инициалы</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Требуется накладная</t>
+  </si>
+  <si>
+    <t>Дополнительная информация</t>
+  </si>
+  <si>
+    <t>Колесников</t>
+  </si>
+  <si>
+    <t>А. Л.</t>
+  </si>
+  <si>
+    <t>1234567zxc</t>
+  </si>
+  <si>
+    <t>Васильева 20</t>
+  </si>
+  <si>
+    <t>Крокодильи</t>
+  </si>
+  <si>
+    <t>Чуть чуть отборные</t>
+  </si>
+  <si>
+    <t>Курьером</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Хочу яйца</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>И. И.</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>Гдето там 20</t>
+  </si>
+  <si>
+    <t>Страусиные</t>
+  </si>
+  <si>
+    <t>Не отборные</t>
+  </si>
+  <si>
+    <t>Электронно</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>Йуцйу</t>
+  </si>
+  <si>
+    <t>ыФЫфыфЫ</t>
+  </si>
+  <si>
+    <t>ыФЫфыФЫы</t>
+  </si>
+  <si>
+    <t>ФЫы</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Почтой</t>
+  </si>
+  <si>
+    <t>dssadsadsdsadsa</t>
+  </si>
+  <si>
+    <t>asdsadsadsa</t>
+  </si>
+  <si>
+    <t>Куриные</t>
+  </si>
+  <si>
+    <t>Отборные</t>
+  </si>
+  <si>
+    <t>asdsadsadd</t>
+  </si>
+  <si>
+    <t>saddsasadassa</t>
+  </si>
+  <si>
+    <t>13123</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,12 +448,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>312312312312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>312312312312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/eggs.xlsx
+++ b/backend/eggs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Фамилия</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Инициалы</t>
   </si>
   <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Адрес</t>
   </si>
   <si>
@@ -49,88 +46,73 @@
     <t>А. Л.</t>
   </si>
   <si>
-    <t>1234567zxc</t>
-  </si>
-  <si>
-    <t>Васильева 20</t>
+    <t>Ул. Васильева 20А</t>
+  </si>
+  <si>
+    <t>Куриные</t>
+  </si>
+  <si>
+    <t>Отборные</t>
+  </si>
+  <si>
+    <t>Электронно</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Яйца яйца</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>И. И.</t>
+  </si>
+  <si>
+    <t>Ул. Есенина 30В</t>
+  </si>
+  <si>
+    <t>Страусиные</t>
+  </si>
+  <si>
+    <t>Чуть чуть отборные</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>Яйца яйца яйца</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Ул. Бебрина 40Г</t>
   </si>
   <si>
     <t>Крокодильи</t>
   </si>
   <si>
-    <t>Чуть чуть отборные</t>
-  </si>
-  <si>
-    <t>Курьером</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>Хочу яйца</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>И. И.</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>Гдето там 20</t>
-  </si>
-  <si>
-    <t>Страусиные</t>
-  </si>
-  <si>
     <t>Не отборные</t>
   </si>
   <si>
-    <t>Электронно</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>Йуцйу</t>
-  </si>
-  <si>
-    <t>ыФЫфыфЫ</t>
-  </si>
-  <si>
-    <t>ыФЫфыФЫы</t>
-  </si>
-  <si>
-    <t>ФЫы</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Почтой</t>
   </si>
   <si>
-    <t>dssadsadsdsadsa</t>
-  </si>
-  <si>
-    <t>asdsadsadsa</t>
-  </si>
-  <si>
-    <t>Куриные</t>
-  </si>
-  <si>
-    <t>Отборные</t>
-  </si>
-  <si>
-    <t>asdsadsadd</t>
-  </si>
-  <si>
-    <t>saddsasadassa</t>
-  </si>
-  <si>
-    <t>13123</t>
+    <t>Яйца яйца яйца яйца</t>
+  </si>
+  <si>
+    <t>Ффывфывыфыф</t>
+  </si>
+  <si>
+    <t>фывфыфыв</t>
+  </si>
+  <si>
+    <t>asdsadsa</t>
+  </si>
+  <si>
+    <t>adsaddsadsadsad</t>
   </si>
 </sst>
 </file>
@@ -448,27 +430,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -496,234 +477,118 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>333</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>312312312312</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>312312312312</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
